--- a/Calcurate_Frequency.xlsx
+++ b/Calcurate_Frequency.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukikamatani/Programing/GitHub/PWMSynthesizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B54EBA5-DAAD-3640-811C-DD1A3F163E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91031D2C-E5DC-9040-8CB3-6874B39E4857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1560" windowWidth="28300" windowHeight="17440" xr2:uid="{D2E14887-9DF8-4D43-83E6-36F350CEE597}"/>
+    <workbookView xWindow="5180" yWindow="9500" windowWidth="28300" windowHeight="17440" xr2:uid="{D2E14887-9DF8-4D43-83E6-36F350CEE597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -548,7 +548,7 @@
         <v>369.99400000000003</v>
       </c>
       <c r="F2" s="3">
-        <v>399.995</v>
+        <v>391.995</v>
       </c>
       <c r="G2" s="3">
         <v>440</v>
@@ -571,7 +571,7 @@
         <v>8200</v>
       </c>
       <c r="F3" s="3">
-        <v>5600</v>
+        <v>6800</v>
       </c>
       <c r="G3" s="3">
         <v>2200</v>
@@ -594,7 +594,7 @@
         <v>820</v>
       </c>
       <c r="F4" s="3">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>560</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="1"/>
-        <v>399.97090127223828</v>
+        <v>392.0366958937401</v>
       </c>
       <c r="G8" s="3">
         <f>1/(LN(2)*(SUM(G3:G5)+G6*2)*G7)</f>
@@ -726,7 +726,7 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="2"/>
-        <v>2.4098727761725058E-2</v>
+        <v>-4.1695893740097745E-2</v>
       </c>
       <c r="G9" s="1">
         <f>G2-G8</f>

--- a/Calcurate_Frequency.xlsx
+++ b/Calcurate_Frequency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukikamatani/Programing/GitHub/PWMSynthesizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91031D2C-E5DC-9040-8CB3-6874B39E4857}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056C09F-DF1D-F14B-A232-635E907C875F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="9500" windowWidth="28300" windowHeight="17440" xr2:uid="{D2E14887-9DF8-4D43-83E6-36F350CEE597}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{D2E14887-9DF8-4D43-83E6-36F350CEE597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Calcurate_Frequency.xlsx
+++ b/Calcurate_Frequency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yukikamatani/Programing/GitHub/PWMSynthesizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7056C09F-DF1D-F14B-A232-635E907C875F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73462F-08C7-9F49-8E24-88717894EBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{D2E14887-9DF8-4D43-83E6-36F350CEE597}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>R2</t>
     <phoneticPr fontId="1"/>
@@ -111,12 +113,40 @@
     <t>R1_1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>TargetF[Hz]</t>
+  </si>
+  <si>
+    <t>R1_1</t>
+  </si>
+  <si>
+    <t>R1_2</t>
+  </si>
+  <si>
+    <t>R1_3</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CalcFreq</t>
+  </si>
+  <si>
+    <t>⊿</t>
+  </si>
+  <si>
+    <t>bpm</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +162,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,13 +202,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +248,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A3D922-127D-C642-95F4-A6E7848C06A5}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -738,6 +811,81 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" ref="B19" si="3">0.1*10^-6</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" ref="B20" si="4">1/(LN(2)*(SUM(B15:B17)+B18*2)*B19)</f>
+        <v>90.621547794532887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" ref="B21" si="5">B14-B20</f>
+        <v>-0.62154779453288711</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
